--- a/ARG_COMPARISON_EXCEL/ARGS_post_order/chrisathe_chris.xlsx
+++ b/ARG_COMPARISON_EXCEL/ARGS_post_order/chrisathe_chris.xlsx
@@ -33,7 +33,7 @@
     <t>0,1</t>
   </si>
   <si>
-    <t>57,0.0,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0</t>
+    <t>5.0,5.7,0.3,0.94,0.32,0.0,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.3,0.0,0.0,0.2,0.1,0.08,0.0,0.0,0.67,26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67</t>
   </si>
   <si>
     <t>arg636360</t>
@@ -42,7 +42,7 @@
     <t>1,0</t>
   </si>
   <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0,154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0</t>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25,26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67</t>
   </si>
   <si>
     <t>arg229317</t>
@@ -51,7 +51,7 @@
     <t>arg245838</t>
   </si>
   <si>
-    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0,111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67,9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5</t>
   </si>
   <si>
     <t>arg231463</t>
@@ -60,7 +60,7 @@
     <t>arg230311</t>
   </si>
   <si>
-    <t>86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0,87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25,19.0,4.58,0.56,0.47,1.2,0.0,9.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.21,0.05,0.05,0.16,0.0,0.0,0.0,0.0,1.63</t>
   </si>
   <si>
     <t>arg244447</t>
@@ -69,7 +69,7 @@
     <t>arg229272</t>
   </si>
   <si>
-    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0,359,0.25,16.32,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.1,0.22</t>
+    <t>18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59,14.5,6.19,1.72,1.87,0.92,0.25,16.32,0.0,0.02,1.0,0,0,0.0,0.0,21.95,0.31,0.03,0.14,0.0,0.0,0.09,0.03,0.15,0.22,0.22,1.04</t>
   </si>
   <si>
     <t>the</t>
@@ -117,37 +117,37 @@
     <t>arg229582</t>
   </si>
   <si>
-    <t>86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0,366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
+    <t>7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25,9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
   </si>
   <si>
     <t>arg254853</t>
   </si>
   <si>
-    <t>268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22,87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85,19.0,4.58,0.56,0.47,1.2,0.0,9.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.21,0.05,0.05,0.16,0.0,0.0,0.0,0.0,1.63</t>
   </si>
   <si>
     <t>arg229346</t>
   </si>
   <si>
-    <t>36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0</t>
+    <t>10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67,11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25</t>
   </si>
   <si>
     <t>arg289787</t>
   </si>
   <si>
-    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0,104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67,6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8</t>
   </si>
   <si>
     <t>arg237221</t>
   </si>
   <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0,122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0</t>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25,24.0,5.08,0.71,0.47,1.52,0.0,13.86,0.0,0.0,0.0,0,0,0.0,0.08,0.0,0.21,0.13,0.25,0.04,0.04,0.04,0.0,0.0,0.0,0.0,2.71</t>
   </si>
   <si>
     <t>arg229291</t>
   </si>
   <si>
-    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0,230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0</t>
+    <t>10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67,11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72</t>
   </si>
   <si>
     <t>royi</t>
@@ -195,13 +195,13 @@
     <t>arg231279</t>
   </si>
   <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0,88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11</t>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25,17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5</t>
   </si>
   <si>
     <t>arg236641</t>
   </si>
   <si>
-    <t>328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11,268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22</t>
+    <t>29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63,45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85</t>
   </si>
   <si>
     <t>ot w</t>
@@ -240,34 +240,34 @@
     <t>arg247556</t>
   </si>
   <si>
-    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0,143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
+    <t>10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67,8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0</t>
   </si>
   <si>
     <t>arg240139</t>
   </si>
   <si>
-    <t>78,1.0,6.47,0.0,0.05,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0</t>
+    <t>19.0,4.11,0.56,0.47,1.2,1.0,6.47,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.05,0.0,0.0,0.0,0.0,1.5,11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25</t>
   </si>
   <si>
     <t>arg434786</t>
   </si>
   <si>
-    <t>160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11,341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
+    <t>30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62,10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67</t>
   </si>
   <si>
     <t>arg608928</t>
   </si>
   <si>
-    <t>298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11,143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
+    <t>51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11,8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0</t>
   </si>
   <si>
     <t>arg328209</t>
   </si>
   <si>
-    <t>298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11,126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0,36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
+    <t>51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11,27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63</t>
+  </si>
+  <si>
+    <t>18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59,10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67</t>
   </si>
   <si>
     <t>I love</t>
@@ -291,31 +291,31 @@
     <t>arg236317</t>
   </si>
   <si>
-    <t>328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11,102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
+    <t>29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63,22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33</t>
   </si>
   <si>
     <t>arg238404</t>
   </si>
   <si>
-    <t>77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0,236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0</t>
+    <t>13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2,11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25</t>
   </si>
   <si>
     <t>arg644073</t>
   </si>
   <si>
-    <t>90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0</t>
+    <t>7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8,11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72</t>
   </si>
   <si>
     <t>arg234318</t>
   </si>
   <si>
-    <t>107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11</t>
+    <t>10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6,17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5</t>
   </si>
   <si>
     <t>arg230910</t>
   </si>
   <si>
-    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0,254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11</t>
+    <t>10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67,16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27</t>
   </si>
   <si>
     <t>de d</t>
@@ -345,7 +345,7 @@
     <t>arg231008</t>
   </si>
   <si>
-    <t>209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0,341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
+    <t>12.67,5.5,1.13,1.4,0.8,0.33,12.81,0.0,0.03,1.0,0,0,0.0,0.03,2.44,0.18,0.13,0.11,0.05,0.05,0.11,0.0,0.0,0.0,0.0,1.4,10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67</t>
   </si>
   <si>
     <t>short</t>
@@ -360,46 +360,46 @@
     <t>arg296771</t>
   </si>
   <si>
-    <t>268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22,182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0,160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11</t>
-  </si>
-  <si>
-    <t>90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11</t>
-  </si>
-  <si>
-    <t>209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0,236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0</t>
+    <t>45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85,36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25,30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62</t>
+  </si>
+  <si>
+    <t>7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8,30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62</t>
+  </si>
+  <si>
+    <t>12.67,5.5,1.13,1.4,0.8,0.33,12.81,0.0,0.03,1.0,0,0,0.0,0.03,2.44,0.18,0.13,0.11,0.05,0.05,0.11,0.0,0.0,0.0,0.0,1.4,11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25</t>
   </si>
   <si>
     <t>arg244440</t>
   </si>
   <si>
-    <t>104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0,122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,1.0,6.47,0.0,0.05,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0,209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0,86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11,341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
+    <t>6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8,14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28</t>
+  </si>
+  <si>
+    <t>19.0,4.58,0.56,0.47,1.2,0.0,9.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.21,0.05,0.05,0.16,0.0,0.0,0.0,0.0,1.63,8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0</t>
+  </si>
+  <si>
+    <t>10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67,24.0,5.08,0.71,0.47,1.52,0.0,13.86,0.0,0.0,0.0,0,0,0.0,0.08,0.0,0.21,0.13,0.25,0.04,0.04,0.04,0.0,0.0,0.0,0.0,2.71</t>
+  </si>
+  <si>
+    <t>19.0,4.11,0.56,0.47,1.2,1.0,6.47,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.05,0.0,0.0,0.0,0.0,1.5,9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
+  </si>
+  <si>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28,22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67,12.67,5.5,1.13,1.4,0.8,0.33,12.81,0.0,0.03,1.0,0,0,0.0,0.03,2.44,0.18,0.13,0.11,0.05,0.05,0.11,0.0,0.0,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63,9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25,7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11,10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67</t>
   </si>
   <si>
     <t>thei</t>
@@ -444,25 +444,25 @@
     <t>hose that fall way short of it.</t>
   </si>
   <si>
-    <t>77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0,341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0,126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0,86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11</t>
-  </si>
-  <si>
-    <t>298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11,268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22</t>
+    <t>13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2,10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>12.67,5.5,1.13,1.4,0.8,0.33,12.81,0.0,0.03,1.0,0,0,0.0,0.03,2.44,0.18,0.13,0.11,0.05,0.05,0.11,0.0,0.0,0.0,0.0,1.4,27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63</t>
+  </si>
+  <si>
+    <t>10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67,10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>19.0,4.58,0.56,0.47,1.2,0.0,9.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.21,0.05,0.05,0.16,0.0,0.0,0.0,0.0,1.63,11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67,7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67,51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11</t>
+  </si>
+  <si>
+    <t>51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11,45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85</t>
   </si>
   <si>
     <t>ts a</t>
@@ -480,25 +480,25 @@
     <t>nd simple</t>
   </si>
   <si>
-    <t>143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0,344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22,236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0,230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0</t>
+    <t>8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0,22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6,10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>24.0,5.08,0.71,0.47,1.52,0.0,13.86,0.0,0.0,0.0,0,0,0.0,0.08,0.0,0.21,0.13,0.25,0.04,0.04,0.04,0.0,0.0,0.0,0.0,2.71,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25,14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28</t>
+  </si>
+  <si>
+    <t>45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85,11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25,11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72</t>
   </si>
   <si>
     <t>by d</t>
@@ -519,40 +519,40 @@
     <t>ligion.</t>
   </si>
   <si>
-    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0,78,1.0,6.47,0.0,0.05,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0,341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>57,0.0,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11,88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11</t>
-  </si>
-  <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11,87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0,328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11</t>
-  </si>
-  <si>
-    <t>104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11</t>
-  </si>
-  <si>
-    <t>36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0,236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0</t>
+    <t>10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67,19.0,4.11,0.56,0.47,1.2,1.0,6.47,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.05,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25,10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33,11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>5.0,5.7,0.3,0.94,0.32,0.0,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.3,0.0,0.0,0.2,0.1,0.08,0.0,0.0,0.67,10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63,17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5</t>
+  </si>
+  <si>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28,27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63</t>
+  </si>
+  <si>
+    <t>9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5,9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
+  </si>
+  <si>
+    <t>29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63,19.0,4.58,0.56,0.47,1.2,0.0,9.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.21,0.05,0.05,0.16,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>24.0,5.08,0.71,0.47,1.52,0.0,13.86,0.0,0.0,0.0,0,0,0.0,0.08,0.0,0.21,0.13,0.25,0.04,0.04,0.04,0.0,0.0,0.0,0.0,2.71,29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63</t>
+  </si>
+  <si>
+    <t>6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8,29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63</t>
+  </si>
+  <si>
+    <t>10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67,13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2</t>
+  </si>
+  <si>
+    <t>10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67,11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25</t>
   </si>
   <si>
     <t>e. F</t>
@@ -573,25 +573,25 @@
     <t>way.</t>
   </si>
   <si>
-    <t>328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11,36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>359,0.25,16.32,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.1,0.22,86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0,57,0.0,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11,111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0,359,0.25,16.32,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.1,0.22</t>
+    <t>29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63,10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>14.5,6.19,1.72,1.87,0.92,0.25,16.32,0.0,0.02,1.0,0,0,0.0,0.0,21.95,0.31,0.03,0.14,0.0,0.0,0.09,0.03,0.15,0.22,0.22,1.04,7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28,24.0,5.08,0.71,0.47,1.52,0.0,13.86,0.0,0.0,0.0,0,0,0.0,0.08,0.0,0.21,0.13,0.25,0.04,0.04,0.04,0.0,0.0,0.0,0.0,2.71</t>
+  </si>
+  <si>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25,5.0,5.7,0.3,0.94,0.32,0.0,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.3,0.0,0.0,0.2,0.1,0.08,0.0,0.0,0.67</t>
+  </si>
+  <si>
+    <t>16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27,9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6,9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
+  </si>
+  <si>
+    <t>10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67,14.5,6.19,1.72,1.87,0.92,0.25,16.32,0.0,0.02,1.0,0,0,0.0,0.0,21.95,0.31,0.03,0.14,0.0,0.0,0.09,0.03,0.15,0.22,0.22,1.04</t>
   </si>
   <si>
     <t>ism,</t>
@@ -630,16 +630,16 @@
     <t>a theist, I must be on this side. &lt;br/&gt; Don't you wish there was a sarcasm feature on the internet?</t>
   </si>
   <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0,359,0.25,16.32,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.1,0.22</t>
-  </si>
-  <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11,77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>359,0.25,16.32,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.1,0.22,236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0</t>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67,14.5,6.19,1.72,1.87,0.92,0.25,16.32,0.0,0.02,1.0,0,0,0.0,0.0,21.95,0.31,0.03,0.14,0.0,0.0,0.09,0.03,0.15,0.22,0.22,1.04</t>
+  </si>
+  <si>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28,13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2</t>
+  </si>
+  <si>
+    <t>29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63,13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2</t>
+  </si>
+  <si>
+    <t>14.5,6.19,1.72,1.87,0.92,0.25,16.32,0.0,0.02,1.0,0,0,0.0,0.0,21.95,0.31,0.03,0.14,0.0,0.0,0.09,0.03,0.15,0.22,0.22,1.04,11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25</t>
   </si>
   <si>
     <t>hea</t>
@@ -681,10 +681,10 @@
     <t>ay.</t>
   </si>
   <si>
-    <t>78,1.0,6.47,0.0,0.05,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0,268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22</t>
+    <t>19.0,4.11,0.56,0.47,1.2,1.0,6.47,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.05,0.0,0.0,0.0,0.0,1.5,26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59,45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85</t>
   </si>
   <si>
     <t>all thi</t>
@@ -711,28 +711,28 @@
     <t>full of conceded, stuck up, narcissistic, atheists who are totally bigoted and intolerant of other peoples beliefs and cant leave people alone to worship or not worship as they chose athieists are biggots plain and simple</t>
   </si>
   <si>
-    <t>328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11,107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0,182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0,57,0.0,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11,87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0,328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11</t>
-  </si>
-  <si>
-    <t>209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0,563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0</t>
+    <t>29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63,10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2,36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77,5.0,5.7,0.3,0.94,0.32,0.0,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.3,0.0,0.0,0.2,0.1,0.08,0.0,0.0,0.67</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63,7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11,19.0,4.58,0.56,0.47,1.2,0.0,9.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.21,0.05,0.05,0.16,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67,29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63</t>
+  </si>
+  <si>
+    <t>12.67,5.5,1.13,1.4,0.8,0.33,12.81,0.0,0.03,1.0,0,0,0.0,0.03,2.44,0.18,0.13,0.11,0.05,0.05,0.11,0.0,0.0,0.0,0.0,1.4,18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59</t>
   </si>
   <si>
     <t>Thi</t>
@@ -777,13 +777,13 @@
     <t>the end. Mainly , I support Christianity because of my "faith to God" and your proof that God doesn't exist doesn't change the case or turn it the other way around.</t>
   </si>
   <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0,87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0,254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11</t>
-  </si>
-  <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0</t>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67,19.0,4.58,0.56,0.47,1.2,0.0,9.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.21,0.05,0.05,0.16,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25,16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27</t>
+  </si>
+  <si>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28,11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72</t>
   </si>
   <si>
     <t>ty,</t>
@@ -822,19 +822,19 @@
     <t>with- argumentum ad populum). In fact, by definition, atheism predates religion.</t>
   </si>
   <si>
-    <t>102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11</t>
-  </si>
-  <si>
-    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0,86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0</t>
+    <t>22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33,6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8</t>
+  </si>
+  <si>
+    <t>10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67,36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8,11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63,30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62</t>
+  </si>
+  <si>
+    <t>18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59,7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25</t>
   </si>
   <si>
     <t>I DON'T</t>
@@ -867,31 +867,31 @@
     <t>AM A MUSLIM, THATS THE BEST RELIGION...</t>
   </si>
   <si>
-    <t>126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,78,1.0,6.47,0.0,0.05,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0,160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11</t>
-  </si>
-  <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0,182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0,328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11</t>
-  </si>
-  <si>
-    <t>102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0,87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0,143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11,344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
+    <t>27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63,19.0,4.11,0.56,0.47,1.2,1.0,6.47,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.05,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67,30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62</t>
+  </si>
+  <si>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25,36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67,9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25,29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63</t>
+  </si>
+  <si>
+    <t>22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33,36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2,19.0,4.58,0.56,0.47,1.2,0.0,9.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.21,0.05,0.05,0.16,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2,8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0</t>
+  </si>
+  <si>
+    <t>16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27,14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28</t>
   </si>
   <si>
     <t>e ev</t>
@@ -927,37 +927,37 @@
     <t>on.</t>
   </si>
   <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0,298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11</t>
-  </si>
-  <si>
-    <t>126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11,36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22,126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0,328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11</t>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28,19.0,4.58,0.56,0.47,1.2,0.0,9.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.21,0.05,0.05,0.16,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25,51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63,10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28,9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6,14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28</t>
+  </si>
+  <si>
+    <t>17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5,10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0,24.0,5.08,0.71,0.47,1.52,0.0,13.86,0.0,0.0,0.0,0,0,0.0,0.08,0.0,0.21,0.13,0.25,0.04,0.04,0.04,0.0,0.0,0.0,0.0,2.71</t>
+  </si>
+  <si>
+    <t>45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85,27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63</t>
+  </si>
+  <si>
+    <t>9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77,29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63</t>
   </si>
   <si>
     <t>a no</t>
@@ -1002,7 +1002,7 @@
     <t>gs of the Christians, only now I see it like this: I believe in God, not religion.</t>
   </si>
   <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28,12.67,5.5,1.13,1.4,0.8,0.33,12.81,0.0,0.03,1.0,0,0,0.0,0.03,2.44,0.18,0.13,0.11,0.05,0.05,0.11,0.0,0.0,0.0,0.0,1.4</t>
   </si>
   <si>
     <t>dif</t>
@@ -1017,13 +1017,13 @@
     <t>tform.</t>
   </si>
   <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,78,1.0,6.47,0.0,0.05,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11,254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11</t>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28,19.0,4.11,0.56,0.47,1.2,1.0,6.47,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.05,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63,16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27</t>
   </si>
   <si>
     <t>ncti</t>
@@ -1041,13 +1041,13 @@
     <t>e made after</t>
   </si>
   <si>
-    <t>78,1.0,6.47,0.0,0.05,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11</t>
-  </si>
-  <si>
-    <t>328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11,160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11</t>
-  </si>
-  <si>
-    <t>328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11,359,0.25,16.32,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.1,0.22</t>
+    <t>19.0,4.11,0.56,0.47,1.2,1.0,6.47,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.05,0.0,0.0,0.0,0.0,1.5,51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11</t>
+  </si>
+  <si>
+    <t>29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63,30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62</t>
+  </si>
+  <si>
+    <t>29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63,14.5,6.19,1.72,1.87,0.92,0.25,16.32,0.0,0.02,1.0,0,0,0.0,0.0,21.95,0.31,0.03,0.14,0.0,0.0,0.09,0.03,0.15,0.22,0.22,1.04</t>
   </si>
   <si>
     <t>nism</t>
@@ -1077,16 +1077,16 @@
     <t>, I must be on this side. &lt;br/&gt; Don't you wish there was a sarcasm feature on the internet?</t>
   </si>
   <si>
-    <t>122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0,366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0,160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11</t>
+    <t>24.0,5.08,0.71,0.47,1.52,0.0,13.86,0.0,0.0,0.0,0,0,0.0,0.08,0.0,0.21,0.13,0.25,0.04,0.04,0.04,0.0,0.0,0.0,0.0,2.71,9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
+  </si>
+  <si>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28,8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0</t>
+  </si>
+  <si>
+    <t>6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8,10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59,30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62</t>
   </si>
   <si>
     <t>I assum</t>
@@ -1116,7 +1116,7 @@
     <t>t was raised in a Christian home, grow a pair and ask yourself, why do I worship a scruffy sandal wearing cultist.</t>
   </si>
   <si>
-    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0,344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
+    <t>18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59,14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28</t>
   </si>
   <si>
     <t>Atheism</t>
@@ -1143,22 +1143,22 @@
     <t>d on the soul. An atheist is always looking for the absence of God, but religious person just believes. Atheism should be constantly fed, but faith shouldn't be. &lt;br/&gt; Although I'm religious person, I think atheist can stand to hear besause everyone is indepent and everyone has to have his own opinion.</t>
   </si>
   <si>
-    <t>88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11,230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11,77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11</t>
-  </si>
-  <si>
-    <t>328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11,78,1.0,6.47,0.0,0.05,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0,268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22</t>
-  </si>
-  <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0,563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0</t>
+    <t>17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5,11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72</t>
+  </si>
+  <si>
+    <t>30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62,13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2</t>
+  </si>
+  <si>
+    <t>9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5,29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63</t>
+  </si>
+  <si>
+    <t>29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63,19.0,4.11,0.56,0.47,1.2,1.0,6.47,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.05,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67,45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85</t>
+  </si>
+  <si>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25,18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59</t>
   </si>
   <si>
     <t>no</t>
@@ -1200,13 +1200,13 @@
     <t>e both doesn't win until the end. Mainly , I support Christianity because of my "faith to God" and your proof that God doesn't exist doesn't change the case or turn it the other way around.</t>
   </si>
   <si>
-    <t>90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11,57,0.0,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0,328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11</t>
+    <t>7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8,12.67,5.5,1.13,1.4,0.8,0.33,12.81,0.0,0.03,1.0,0,0,0.0,0.03,2.44,0.18,0.13,0.11,0.05,0.05,0.11,0.0,0.0,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62,5.0,5.7,0.3,0.94,0.32,0.0,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.3,0.0,0.0,0.2,0.1,0.08,0.0,0.0,0.67</t>
+  </si>
+  <si>
+    <t>18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59,29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63</t>
   </si>
   <si>
     <t>I was r</t>
@@ -1236,52 +1236,52 @@
     <t>was lucky to encounter a church full of people who were actually kind and practiced what they preached. Now, I consider myself a non-denominational who still wholly believes in the beliefs and teachings of the Christians, only now I see it like this: I believe in God, not religion.</t>
   </si>
   <si>
-    <t>36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0,230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11</t>
-  </si>
-  <si>
-    <t>107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11</t>
-  </si>
-  <si>
-    <t>107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0,341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11,86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11,344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11</t>
-  </si>
-  <si>
-    <t>86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0,77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22,88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11</t>
-  </si>
-  <si>
-    <t>88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11,209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0,563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0</t>
+    <t>10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67,11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72</t>
+  </si>
+  <si>
+    <t>36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0,30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62</t>
+  </si>
+  <si>
+    <t>10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6,51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11</t>
+  </si>
+  <si>
+    <t>10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6,19.0,4.58,0.56,0.47,1.2,0.0,9.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.21,0.05,0.05,0.16,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67,10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27,7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62,14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28</t>
+  </si>
+  <si>
+    <t>6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8,16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27</t>
+  </si>
+  <si>
+    <t>7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25,13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2</t>
+  </si>
+  <si>
+    <t>22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33,9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
+  </si>
+  <si>
+    <t>10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67,14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28</t>
+  </si>
+  <si>
+    <t>45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85,17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5</t>
+  </si>
+  <si>
+    <t>17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5,12.67,5.5,1.13,1.4,0.8,0.33,12.81,0.0,0.03,1.0,0,0,0.0,0.03,2.44,0.18,0.13,0.11,0.05,0.05,0.11,0.0,0.0,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67,18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59</t>
   </si>
   <si>
     <t>is ,</t>
@@ -1326,10 +1326,10 @@
     <t>tradicts each others belief and no one truthfully wins. This is probably a fight between two armies where both doesn't win until the end. Mainly , I support Christianity because of my "faith to God" and your proof that God doesn't exist doesn't change the case or turn it the other way around.</t>
   </si>
   <si>
-    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0,111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
+    <t>10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59,9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5</t>
   </si>
   <si>
     <t>why are</t>
@@ -1356,13 +1356,13 @@
     <t>gists are running rampant. We need to come together to fight them</t>
   </si>
   <si>
-    <t>104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0,78,1.0,6.47,0.0,0.05,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
+    <t>6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8,12.67,5.5,1.13,1.4,0.8,0.33,12.81,0.0,0.03,1.0,0,0,0.0,0.03,2.44,0.18,0.13,0.11,0.05,0.05,0.11,0.0,0.0,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59,19.0,4.11,0.56,0.47,1.2,1.0,6.47,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.05,0.0,0.0,0.0,0.0,1.5</t>
   </si>
   <si>
     <t>i am ch</t>
@@ -1395,34 +1395,34 @@
     <t>and i also get to go to church.</t>
   </si>
   <si>
-    <t>268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22,86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0,209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>359,0.25,16.32,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.1,0.22,36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0,111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0,182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
+    <t>45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85,7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0,11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72</t>
+  </si>
+  <si>
+    <t>24.0,5.08,0.71,0.47,1.52,0.0,13.86,0.0,0.0,0.0,0,0,0.0,0.08,0.0,0.21,0.13,0.25,0.04,0.04,0.04,0.0,0.0,0.0,0.0,2.71,12.67,5.5,1.13,1.4,0.8,0.33,12.81,0.0,0.03,1.0,0,0,0.0,0.03,2.44,0.18,0.13,0.11,0.05,0.05,0.11,0.0,0.0,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>14.5,6.19,1.72,1.87,0.92,0.25,16.32,0.0,0.02,1.0,0,0,0.0,0.0,21.95,0.31,0.03,0.14,0.0,0.0,0.09,0.03,0.15,0.22,0.22,1.04,10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25,9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63,10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8,10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77,36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0</t>
   </si>
   <si>
     <t>a "l</t>
@@ -1431,25 +1431,25 @@
     <t>ife".</t>
   </si>
   <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0,107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
-  </si>
-  <si>
-    <t>102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11</t>
-  </si>
-  <si>
-    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0,102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0,36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0,104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25,10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6,9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0,14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28</t>
+  </si>
+  <si>
+    <t>22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33,16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27</t>
+  </si>
+  <si>
+    <t>10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67,22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77,10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59,6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8</t>
   </si>
   <si>
     <t>Christi</t>
@@ -1482,25 +1482,25 @@
     <t>I didn't believe in God. Actually I can, it would be hell.</t>
   </si>
   <si>
-    <t>102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11,86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0,36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22</t>
-  </si>
-  <si>
-    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0,126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
+    <t>22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33,19.0,4.58,0.56,0.47,1.2,0.0,9.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.21,0.05,0.05,0.16,0.0,0.0,0.0,0.0,1.63</t>
+  </si>
+  <si>
+    <t>10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6,11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72</t>
+  </si>
+  <si>
+    <t>51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11,7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67,10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67,12.67,5.5,1.13,1.4,0.8,0.33,12.81,0.0,0.03,1.0,0,0,0.0,0.03,2.44,0.18,0.13,0.11,0.05,0.05,0.11,0.0,0.0,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8,45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85</t>
+  </si>
+  <si>
+    <t>18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59,27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63</t>
   </si>
   <si>
     <t>I am a</t>
@@ -1527,22 +1527,22 @@
     <t>God who will do ultimate justice for the good and bad deeds done here on earth.</t>
   </si>
   <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0,111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11,341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0,154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0,107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0,298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11</t>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67,9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5,10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2,26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6,26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67,10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72,51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11</t>
   </si>
   <si>
     <t>gain</t>
@@ -1584,19 +1584,19 @@
     <t>and say we support atheism.</t>
   </si>
   <si>
-    <t>209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0,182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11,230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0,563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0</t>
+    <t>12.67,5.5,1.13,1.4,0.8,0.33,12.81,0.0,0.03,1.0,0,0,0.0,0.03,2.44,0.18,0.13,0.11,0.05,0.05,0.11,0.0,0.0,0.0,0.0,1.4,36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62,11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72</t>
+  </si>
+  <si>
+    <t>6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8,8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0</t>
+  </si>
+  <si>
+    <t>22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33,27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63</t>
+  </si>
+  <si>
+    <t>24.0,5.08,0.71,0.47,1.52,0.0,13.86,0.0,0.0,0.0,0,0,0.0,0.08,0.0,0.21,0.13,0.25,0.04,0.04,0.04,0.0,0.0,0.0,0.0,2.71,18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59</t>
   </si>
   <si>
     <t>y ,</t>
@@ -1638,37 +1638,37 @@
     <t>at God doesn't exist doesn't change the case or turn it the other way around.</t>
   </si>
   <si>
-    <t>90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,359,0.25,16.32,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.1,0.22</t>
-  </si>
-  <si>
-    <t>254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11,107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,1.0,6.47,0.0,0.05,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11</t>
-  </si>
-  <si>
-    <t>77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0,268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22</t>
-  </si>
-  <si>
-    <t>57,0.0,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0,126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11</t>
-  </si>
-  <si>
-    <t>104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0,230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0,88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11</t>
+    <t>7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8,14.5,6.19,1.72,1.87,0.92,0.25,16.32,0.0,0.02,1.0,0,0,0.0,0.0,21.95,0.31,0.03,0.14,0.0,0.0,0.09,0.03,0.15,0.22,0.22,1.04</t>
+  </si>
+  <si>
+    <t>16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27,10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>19.0,4.11,0.56,0.47,1.2,1.0,6.47,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.05,0.0,0.0,0.0,0.0,1.5,30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2,45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85</t>
+  </si>
+  <si>
+    <t>5.0,5.7,0.3,0.94,0.32,0.0,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.3,0.0,0.0,0.2,0.1,0.08,0.0,0.0,0.67,36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2,27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63,11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25</t>
+  </si>
+  <si>
+    <t>9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5,51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11</t>
+  </si>
+  <si>
+    <t>6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8,7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>24.0,5.08,0.71,0.47,1.52,0.0,13.86,0.0,0.0,0.0,0,0,0.0,0.08,0.0,0.21,0.13,0.25,0.04,0.04,0.04,0.0,0.0,0.0,0.0,2.71,11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72</t>
+  </si>
+  <si>
+    <t>18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59,17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5</t>
   </si>
   <si>
     <t>Science</t>
@@ -1695,7 +1695,7 @@
     <t>nly a question of which one at this point.</t>
   </si>
   <si>
-    <t>359,0.25,16.32,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.1,0.22,344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0</t>
+    <t>14.5,6.19,1.72,1.87,0.92,0.25,16.32,0.0,0.02,1.0,0,0,0.0,0.0,21.95,0.31,0.03,0.14,0.0,0.0,0.09,0.03,0.15,0.22,0.22,1.04,14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28</t>
   </si>
   <si>
     <t>be c</t>
@@ -1737,16 +1737,16 @@
     <t>erson, I think atheist can stand to hear besause everyone is indepent and everyone has to have his own opinion.</t>
   </si>
   <si>
-    <t>126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>78,1.0,6.47,0.0,0.05,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0,268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22</t>
-  </si>
-  <si>
-    <t>182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0</t>
+    <t>27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63,9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
+  </si>
+  <si>
+    <t>19.0,4.11,0.56,0.47,1.2,1.0,6.47,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.05,0.0,0.0,0.0,0.0,1.5,45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85</t>
+  </si>
+  <si>
+    <t>36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>19.0,4.58,0.56,0.47,1.2,0.0,9.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.21,0.05,0.05,0.16,0.0,0.0,0.0,0.0,1.63,18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59</t>
   </si>
   <si>
     <t>"fa</t>
@@ -1785,25 +1785,25 @@
     <t>case or turn it the other way around.</t>
   </si>
   <si>
-    <t>143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11</t>
-  </si>
-  <si>
-    <t>77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0,366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0,88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11</t>
-  </si>
-  <si>
-    <t>160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11,298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11</t>
-  </si>
-  <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0,88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11</t>
-  </si>
-  <si>
-    <t>87,0.0,9.26,0.0,0.0,1.0,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11</t>
-  </si>
-  <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22</t>
+    <t>8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0,17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2,9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
+  </si>
+  <si>
+    <t>24.0,5.08,0.71,0.47,1.52,0.0,13.86,0.0,0.0,0.0,0,0,0.0,0.08,0.0,0.21,0.13,0.25,0.04,0.04,0.04,0.0,0.0,0.0,0.0,2.71,17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5</t>
+  </si>
+  <si>
+    <t>30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62,51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11</t>
+  </si>
+  <si>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67,17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5</t>
+  </si>
+  <si>
+    <t>19.0,4.58,0.56,0.47,1.2,0.0,9.26,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.0,0.21,0.05,0.05,0.16,0.0,0.0,0.0,0.0,1.63,16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27</t>
+  </si>
+  <si>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28,45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85</t>
   </si>
   <si>
     <t>to</t>
@@ -1845,19 +1845,19 @@
     <t>simple</t>
   </si>
   <si>
-    <t>57,0.0,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11,90,0.0,14.75,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0,230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0</t>
-  </si>
-  <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
+    <t>5.0,5.7,0.3,0.94,0.32,0.0,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.3,0.0,0.0,0.2,0.1,0.08,0.0,0.0,0.67,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63,36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5,7.5,6.0,0.44,0.94,0.47,0.0,14.75,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.27,0.07,0.33,0.0,0.0,0.0,0.0,0.0,0.0,0.0,0.8</t>
+  </si>
+  <si>
+    <t>7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25,11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72</t>
+  </si>
+  <si>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28,10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67</t>
   </si>
   <si>
     <t>t is</t>
@@ -1899,13 +1899,13 @@
     <t>be better than any human must really piss off those that fall way short of it.</t>
   </si>
   <si>
-    <t>111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>126,0.0,10.32,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11</t>
-  </si>
-  <si>
-    <t>254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11,563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0</t>
+    <t>9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5,8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0</t>
+  </si>
+  <si>
+    <t>27.0,4.67,0.8,0.47,1.71,0.0,10.32,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.15,0.19,0.07,0.07,0.07,0.0,0.0,0.0,0.0,2.63,16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27</t>
+  </si>
+  <si>
+    <t>16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27,18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59</t>
   </si>
   <si>
     <t>ther</t>
@@ -1938,16 +1938,16 @@
     <t>two armies where both doesn't win until the end. Mainly , I support Christianity because of my "faith to God" and your proof that God doesn't exist doesn't change the case or turn it the other way around.</t>
   </si>
   <si>
-    <t>254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11,88,0.0,12.2,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.1,0.15,0.05,0.11</t>
-  </si>
-  <si>
-    <t>111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0,182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11</t>
-  </si>
-  <si>
-    <t>236,0.5,9.53,0.0,0.0,1.0,0.0,0.02,0.0,0.1,0.15,0.1,0.0,0.0,366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
+    <t>16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27,17.0,5.18,0.5,0.47,1.08,0.0,12.2,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.24,0.0,0.0,0.06,0.06,0.06,0.0,0.0,0.11,0.11,3.5</t>
+  </si>
+  <si>
+    <t>9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5,36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33,51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11</t>
+  </si>
+  <si>
+    <t>11.25,5.24,1.33,1.87,0.71,0.5,9.53,0.0,0.0,1.0,0,0,0.0,0.02,0.0,0.11,0.18,0.2,0.02,0.02,0.11,0.0,0.0,0.0,0.0,1.25,9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
   </si>
   <si>
     <t>ists</t>
@@ -1983,7 +1983,7 @@
     <t>rap.</t>
   </si>
   <si>
-    <t>268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22,341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0</t>
+    <t>45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85,10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67</t>
   </si>
   <si>
     <t>ter</t>
@@ -2019,19 +2019,19 @@
     <t>it.</t>
   </si>
   <si>
-    <t>328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11,143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22,104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22,143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0</t>
-  </si>
-  <si>
-    <t>182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0</t>
+    <t>29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63,8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0</t>
+  </si>
+  <si>
+    <t>45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85,6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8</t>
+  </si>
+  <si>
+    <t>45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85,8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0</t>
+  </si>
+  <si>
+    <t>36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0,7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0,18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59</t>
   </si>
   <si>
     <t>n tw</t>
@@ -2067,7 +2067,7 @@
     <t>istianity because of my "faith to God" and your proof that God doesn't exist doesn't change the case or turn it the other way around.</t>
   </si>
   <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28,9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
   </si>
   <si>
     <t>s up</t>
@@ -2109,7 +2109,7 @@
     <t>up with is the Bible, what do the atheists have? Evolution? Everyone knows evolution is a load of crap.</t>
   </si>
   <si>
-    <t>344,1.0,15.08,0.0,0.03,1.0,0.0,0.0,0.0,0.1,0.25,0.25,0.0,0.0,328,0.0,14.42,0.0,0.03,1.0,0.0,0.0,0.0,0.2,0.35,0.35,0.1,0.11</t>
+    <t>14.75,5.83,1.75,1.87,0.93,1.0,15.08,0.0,0.03,1.0,0,0,0.0,0.0,0.0,0.19,0.12,0.25,0.05,0.05,0.03,0.02,0.0,0.0,0.0,2.28,29.0,5.66,1.72,0.94,1.84,0.0,14.42,0.0,0.03,1.0,0,0,0.0,0.0,2.44,0.16,0.05,0.21,0.1,0.1,0.12,0.0,0.0,0.11,0.11,2.63</t>
   </si>
   <si>
     <t>onal</t>
@@ -2151,13 +2151,13 @@
     <t>ians, only now I see it like this: I believe in God, not religion.</t>
   </si>
   <si>
-    <t>182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0,154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0</t>
+    <t>36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0,10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33,26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0,18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59</t>
   </si>
   <si>
     <t>l th</t>
@@ -2202,13 +2202,13 @@
     <t>nd your proof that God doesn't exist doesn't change the case or turn it the other way around.</t>
   </si>
   <si>
-    <t>160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11,366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0,230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0</t>
+    <t>30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62,9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
+  </si>
+  <si>
+    <t>8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0,10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6</t>
+  </si>
+  <si>
+    <t>9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77,11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72</t>
   </si>
   <si>
     <t>date</t>
@@ -2250,10 +2250,10 @@
     <t>llshit to begin with- argumentum ad populum). In fact, by definition, atheism predates religion.</t>
   </si>
   <si>
-    <t>359,0.25,16.32,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.1,0.22,57,0.0,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>107,0.0,10.78,0.0,0.05,1.0,0.0,0.0,0.0,0.1,0.05,0.05,0.0,0.0,563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0</t>
+    <t>14.5,6.19,1.72,1.87,0.92,0.25,16.32,0.0,0.02,1.0,0,0,0.0,0.0,21.95,0.31,0.03,0.14,0.0,0.0,0.09,0.03,0.15,0.22,0.22,1.04,5.0,5.7,0.3,0.94,0.32,0.0,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.3,0.0,0.0,0.2,0.1,0.08,0.0,0.0,0.67</t>
+  </si>
+  <si>
+    <t>10.5,5.1,0.62,0.94,0.66,0.0,10.78,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.14,0.0,0.43,0.05,0.05,0.05,0.0,0.0,0.0,0.0,3.6,18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59</t>
   </si>
   <si>
     <t>rist</t>
@@ -2292,10 +2292,10 @@
     <t>xist doesn't change the case or turn it the other way around.</t>
   </si>
   <si>
-    <t>154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0,366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
-  </si>
-  <si>
-    <t>563,0.17,11.81,0.0,0.0,1.0,0.0,0.0,0.0,0.35,0.5,0.55,0.05,0.0,57,0.0,10.62,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.05,0.0,0.0</t>
+    <t>26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67,9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
+  </si>
+  <si>
+    <t>18.0,5.21,3.2,2.81,1.14,0.17,11.81,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.19,0.06,0.22,0.02,0.02,0.09,0.02,0.15,0.0,0.0,2.59,5.0,5.7,0.3,0.94,0.32,0.0,10.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.1,0.3,0.0,0.0,0.2,0.1,0.08,0.0,0.0,0.67</t>
   </si>
   <si>
     <t>I have</t>
@@ -2319,7 +2319,7 @@
     <t>do believe.</t>
   </si>
   <si>
-    <t>182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0,359,0.25,16.32,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.1,0.22</t>
+    <t>36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0,14.5,6.19,1.72,1.87,0.92,0.25,16.32,0.0,0.02,1.0,0,0,0.0,0.0,21.95,0.31,0.03,0.14,0.0,0.0,0.09,0.03,0.15,0.22,0.22,1.04</t>
   </si>
   <si>
     <t>he i</t>
@@ -2331,16 +2331,16 @@
     <t>t?</t>
   </si>
   <si>
-    <t>298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11,209,0.33,12.81,0.0,0.03,1.0,0.0,0.03,0.0,0.1,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0,86,0.0,10.83,0.0,0.07,2.0,0.0,0.8,0.0,0.15,0.15,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>359,0.25,16.32,0.0,0.02,1.0,0.0,0.0,0.0,0.15,0.15,0.15,0.1,0.22,366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
+    <t>51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11,12.67,5.5,1.13,1.4,0.8,0.33,12.81,0.0,0.03,1.0,0,0,0.0,0.03,2.44,0.18,0.13,0.11,0.05,0.05,0.11,0.0,0.0,0.0,0.0,1.4</t>
+  </si>
+  <si>
+    <t>6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8,26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>24.0,5.08,0.71,0.47,1.52,0.0,13.86,0.0,0.0,0.0,0,0,0.0,0.08,0.0,0.21,0.13,0.25,0.04,0.04,0.04,0.0,0.0,0.0,0.0,2.71,7.5,5.73,0.44,0.94,0.47,0.0,10.83,0.0,0.07,2.0,0,0,0.0,0.8,0.0,0.2,0.0,0.07,0.0,0.0,0.13,0.0,0.0,0.0,0.0,3.25</t>
+  </si>
+  <si>
+    <t>14.5,6.19,1.72,1.87,0.92,0.25,16.32,0.0,0.02,1.0,0,0,0.0,0.0,21.95,0.31,0.03,0.14,0.0,0.0,0.09,0.03,0.15,0.22,0.22,1.04,9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
   </si>
   <si>
     <t>othi</t>
@@ -2382,22 +2382,22 @@
     <t>have to back themselves up with is the Bible, what do the atheists have? Evolution? Everyone knows evolution is a load of crap.</t>
   </si>
   <si>
-    <t>104,0.0,8.62,0.0,0.0,1.0,0.0,0.0,0.0,0.15,0.1,0.1,0.0,0.0,160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11</t>
-  </si>
-  <si>
-    <t>230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0,102,0.0,10.12,0.0,0.0,0.0,0.0,0.0,0.0,0.05,0.05,0.05,0.05,0.0</t>
-  </si>
-  <si>
-    <t>254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11,154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22,36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>230,0.33,19.46,0.0,0.12,1.0,0.0,0.0,0.0,0.25,0.25,0.25,0.05,0.0,78,1.0,6.47,0.0,0.05,1.0,0.0,0.0,0.0,0.05,0.15,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11,298,1.0,16.26,0.0,0.04,1.0,0.0,0.0,0.0,0.25,0.2,0.2,0.14,0.11</t>
+    <t>6.33,5.47,0.56,1.4,0.4,0.0,8.62,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.05,0.26,0.0,0.0,0.16,0.0,0.0,0.0,0.0,3.8,30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62</t>
+  </si>
+  <si>
+    <t>11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72,22.0,4.64,0.65,0.47,1.39,0.0,10.12,0.0,0.0,0.0,0,0,0.0,0.0,0.0,0.09,0.05,0.32,0.14,0.14,0.18,0.0,0.0,0.0,0.0,2.33</t>
+  </si>
+  <si>
+    <t>16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27,26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85,10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>11.33,6.76,1.01,1.4,0.72,0.33,19.46,0.0,0.12,1.0,0,0,0.0,0.0,2.44,0.41,0.12,0.26,0.03,0.03,0.06,0.06,0.08,0.0,0.0,1.72,19.0,4.11,0.56,0.47,1.2,1.0,6.47,0.0,0.05,1.0,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.11,0.11,0.05,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27,51.0,5.84,1.51,0.47,3.23,1.0,16.26,0.0,0.04,1.0,0,0,0.0,0.0,0.0,0.24,0.04,0.24,0.12,0.12,0.1,0.02,0.0,0.11,0.11,2.11</t>
   </si>
   <si>
     <t>port</t>
@@ -2409,16 +2409,16 @@
     <t>sm.</t>
   </si>
   <si>
-    <t>341,0.0,13.39,1.0,0.0,1.0,0.0,0.0,0.0,0.15,0.2,0.2,0.1,0.0,182,1.0,12.52,0.0,0.09,2.0,0.0,0.0,0.0,0.15,0.2,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0,111,0.0,14.82,0.0,0.05,0.5,0.0,0.0,0.0,0.0,0.05,0.05,0.0,0.0</t>
-  </si>
-  <si>
-    <t>254,0.0,11.94,0.0,0.02,1.0,0.0,0.02,0.0,0.05,0.0,0.0,0.1,0.11,36,0.0,2.47,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.1,0.0,0.0</t>
-  </si>
-  <si>
-    <t>268,0.0,18.17,0.0,0.04,0.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.22,366,0.14,13.58,1.0,0.0,1.29,0.0,0.0,0.0,0.2,0.25,0.2,0.0,0.0</t>
+    <t>10.17,5.59,1.81,2.81,0.64,0.0,13.39,1.0,0.0,1.0,0,0,0.0,0.0,0.0,0.15,0.11,0.21,0.03,0.03,0.0,0.02,0.08,0.0,0.0,1.67,36.0,5.06,1.07,0.47,2.28,1.0,12.52,0.0,0.09,2.0,0,0,0.0,0.0,2.44,0.14,0.08,0.17,0.06,0.06,0.11,0.0,0.0,0.0,0.0,3.0</t>
+  </si>
+  <si>
+    <t>13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2,9.5,5.84,0.56,0.94,0.6,0.0,14.82,0.0,0.05,0.5,0,0,0.0,0.0,0.0,0.11,0.05,0.32,0.16,0.16,0.16,0.0,0.0,0.0,0.0,1.5</t>
+  </si>
+  <si>
+    <t>16.67,5.08,1.48,1.4,1.06,0.0,11.94,0.0,0.02,1.0,0,0,0.0,0.02,0.0,0.18,0.1,0.28,0.08,0.08,0.1,0.02,0.08,0.11,0.11,1.27,10.0,3.6,0.3,0.47,0.63,0.0,2.47,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.2,0.0,0.2,0.0,0.0,0.2,0.0,0.0,0.0,0.0,1.67</t>
+  </si>
+  <si>
+    <t>45.0,5.96,1.33,0.47,2.85,0.0,18.17,0.0,0.04,0.0,0,0,0.0,0.0,0.0,0.16,0.22,0.18,0.07,0.07,0.02,0.04,0.15,0.22,0.22,1.85,9.29,5.63,1.93,3.27,0.59,0.14,13.58,1.0,0.0,1.29,0,0,0.0,0.0,0.0,0.22,0.0,0.22,0.05,0.05,0.09,0.0,0.0,0.0,0.0,2.77</t>
   </si>
   <si>
     <t>h is</t>
@@ -2463,13 +2463,13 @@
     <t>ution is a load of crap.</t>
   </si>
   <si>
-    <t>143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,154,0.0,16.3,0.0,0.0,1.0,0.0,0.0,0.0,0.05,0.05,0.15,0.0,0.0</t>
-  </si>
-  <si>
-    <t>143,0.33,14.55,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.1,0.1,0.05,0.0,160,0.0,13.98,0.0,0.0,1.0,0.0,0.0,0.0,0.1,0.2,0.2,0.1,0.11</t>
-  </si>
-  <si>
-    <t>122,0.0,13.86,0.0,0.0,0.0,0.0,0.08,0.0,0.15,0.15,0.1,0.0,0.0,77,0.0,14.01,0.0,0.08,1.0,0.0,0.0,0.0,0.0,0.05,0.1,0.0,0.0</t>
+    <t>8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0,26.0,5.92,0.77,0.47,1.65,0.0,16.3,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.35,0.04,0.04,0.0,0.04,0.08,0.0,0.0,2.67</t>
+  </si>
+  <si>
+    <t>8.0,5.96,0.71,1.4,0.51,0.33,14.55,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.21,0.04,0.08,0.08,0.08,0.04,0.08,0.15,0.0,0.0,2.0,30.0,5.33,0.89,0.47,1.9,0.0,13.98,0.0,0.0,1.0,0,0,0.0,0.0,0.0,0.3,0.03,0.27,0.0,0.0,0.1,0.0,0.0,0.11,0.11,1.62</t>
+  </si>
+  <si>
+    <t>24.0,5.08,0.71,0.47,1.52,0.0,13.86,0.0,0.0,0.0,0,0,0.0,0.08,0.0,0.21,0.13,0.25,0.04,0.04,0.04,0.0,0.0,0.0,0.0,2.71,13.0,5.92,0.39,0.47,0.82,0.0,14.01,0.0,0.08,1.0,0,0,0.0,0.0,0.0,0.23,0.0,0.38,0.15,0.15,0.15,0.0,0.0,0.0,0.0,2.2</t>
   </si>
 </sst>
 </file>
